--- a/REGULAR/TREASURY/UNTALAN DIVINA R..xlsx
+++ b/REGULAR/TREASURY/UNTALAN DIVINA R..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83AB8D-E255-4AC8-BD8C-A68D582CF9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400CD9B-457C-443D-BEB6-44A6CE1D4E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -300,6 +292,9 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1324,9 +1319,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A71" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="M30" sqref="M30"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,7 +1486,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>180.56100000000001</v>
+        <v>183.06100000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1501,7 +1496,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>225.709</v>
+        <v>228.209</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3095,7 +3090,9 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="48" t="s">
+        <v>86</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -3111,31 +3108,43 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="A83" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="49">
+        <v>44937</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>44958</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -3143,7 +3152,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>44986</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3159,7 +3170,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45017</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3175,7 +3188,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45047</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3191,7 +3206,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45078</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3207,7 +3224,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45108</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3223,7 +3242,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45139</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3239,7 +3260,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45170</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3255,7 +3278,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45200</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3271,7 +3296,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45231</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3287,7 +3314,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45261</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3303,7 +3332,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45292</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3319,7 +3350,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45323</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3335,7 +3368,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45352</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3351,7 +3386,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45383</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3367,7 +3404,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45413</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3383,7 +3422,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45444</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3399,7 +3440,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45474</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3415,7 +3458,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45505</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3431,7 +3476,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45536</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3447,7 +3494,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45566</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3463,7 +3512,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45597</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3479,7 +3530,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45627</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3495,7 +3548,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45658</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3511,7 +3566,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45689</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3527,7 +3584,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45717</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3543,7 +3602,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45748</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3559,7 +3620,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45778</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3575,7 +3638,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45809</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3591,7 +3656,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45839</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3607,7 +3674,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45870</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3623,7 +3692,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45901</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3639,7 +3710,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45931</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3655,7 +3728,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45962</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3671,7 +3746,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45992</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3687,7 +3764,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>46023</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3703,7 +3782,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>46054</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
